--- a/hw/HW6-Taxi_ModelEnsemble/artifacts/taxi_postDQR.xlsx
+++ b/hw/HW6-Taxi_ModelEnsemble/artifacts/taxi_postDQR.xlsx
@@ -540,58 +540,58 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="D2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="E2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="F2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="G2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="H2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="I2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="J2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="K2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="L2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="M2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="N2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="O2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="P2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="Q2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="R2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="S2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="T2" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
     </row>
     <row r="3">
@@ -604,28 +604,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5030</v>
+        <v>50309</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2008</v>
+        <v>4712</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1114</v>
+        <v>2471</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>886</v>
+        <v>2236</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -668,58 +668,58 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25668.7846918489</v>
+        <v>25591.64002464768</v>
       </c>
       <c r="D4" t="n">
-        <v>1.856660039761431</v>
+        <v>1.850980937804369</v>
       </c>
       <c r="E4" t="n">
-        <v>1322.364612326044</v>
+        <v>1399.720149476237</v>
       </c>
       <c r="F4" t="n">
-        <v>1.140755467196819</v>
+        <v>1.13754994136238</v>
       </c>
       <c r="G4" t="n">
-        <v>1.295626242544732</v>
+        <v>1.309487368065356</v>
       </c>
       <c r="H4" t="n">
-        <v>3.453489065606361</v>
+        <v>3.432278916297283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2978528827037773</v>
+        <v>0.2982050925281758</v>
       </c>
       <c r="J4" t="n">
-        <v>18.40724254473161</v>
+        <v>18.23159196167684</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05606361829025845</v>
+        <v>0.05730584984793973</v>
       </c>
       <c r="L4" t="n">
-        <v>0.153479125248509</v>
+        <v>0.1500129201534517</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5840954274353877</v>
+        <v>0.5889403486453716</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2041749502982107</v>
+        <v>0.2005009044107416</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002186878727634195</v>
+        <v>0.003239976942495378</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08011928429423459</v>
+        <v>0.08288775368224373</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1351888667992048</v>
+        <v>0.13444910453398</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5868787276341948</v>
+        <v>0.5845077421534914</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1938369781312127</v>
+        <v>0.1942793535947842</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003976143141153081</v>
+        <v>0.003876046035500606</v>
       </c>
     </row>
     <row r="5">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25541</v>
+        <v>25586</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -747,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.995</v>
+        <v>1.99</v>
       </c>
       <c r="I5" t="n">
         <v>0.3</v>
       </c>
       <c r="J5" t="n">
-        <v>13.55</v>
+        <v>13.56</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -795,63 +795,59 @@
           <t>n_at_median</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4309</v>
+        <v>42812</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>4841</v>
+        <v>48449</v>
       </c>
       <c r="G6" t="n">
-        <v>4335</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>43403</v>
+      </c>
+      <c r="H6" t="n">
+        <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>4994</v>
+        <v>50008</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="K6" t="n">
-        <v>4748</v>
+        <v>47426</v>
       </c>
       <c r="L6" t="n">
-        <v>4258</v>
+        <v>42762</v>
       </c>
       <c r="M6" t="n">
-        <v>2938</v>
+        <v>29629</v>
       </c>
       <c r="N6" t="n">
-        <v>4003</v>
+        <v>40222</v>
       </c>
       <c r="O6" t="n">
-        <v>5019</v>
+        <v>50146</v>
       </c>
       <c r="P6" t="n">
-        <v>4627</v>
+        <v>46139</v>
       </c>
       <c r="Q6" t="n">
-        <v>4350</v>
+        <v>43545</v>
       </c>
       <c r="R6" t="n">
-        <v>2952</v>
+        <v>29406</v>
       </c>
       <c r="S6" t="n">
-        <v>4055</v>
+        <v>40535</v>
       </c>
       <c r="T6" t="n">
-        <v>5010</v>
+        <v>50114</v>
       </c>
     </row>
     <row r="7">
@@ -864,7 +860,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -885,7 +881,7 @@
         <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -931,55 +927,55 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>4309</v>
+        <v>42812</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F8" t="n">
-        <v>4841</v>
+        <v>48449</v>
       </c>
       <c r="G8" t="n">
-        <v>4335</v>
+        <v>43403</v>
       </c>
       <c r="H8" t="n">
-        <v>252</v>
+        <v>2442</v>
       </c>
       <c r="I8" t="n">
-        <v>4994</v>
+        <v>50008</v>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>1157</v>
       </c>
       <c r="K8" t="n">
-        <v>4748</v>
+        <v>47426</v>
       </c>
       <c r="L8" t="n">
-        <v>4258</v>
+        <v>42762</v>
       </c>
       <c r="M8" t="n">
-        <v>2938</v>
+        <v>29629</v>
       </c>
       <c r="N8" t="n">
-        <v>4003</v>
+        <v>40222</v>
       </c>
       <c r="O8" t="n">
-        <v>5019</v>
+        <v>50146</v>
       </c>
       <c r="P8" t="n">
-        <v>4627</v>
+        <v>46139</v>
       </c>
       <c r="Q8" t="n">
-        <v>4350</v>
+        <v>43545</v>
       </c>
       <c r="R8" t="n">
-        <v>2952</v>
+        <v>29406</v>
       </c>
       <c r="S8" t="n">
-        <v>4055</v>
+        <v>40535</v>
       </c>
       <c r="T8" t="n">
-        <v>5010</v>
+        <v>50114</v>
       </c>
     </row>
     <row r="9">
@@ -992,58 +988,58 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14547.66237504193</v>
+        <v>14762.42528760786</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3504540385576665</v>
+        <v>0.3561108001984165</v>
       </c>
       <c r="E9" t="n">
-        <v>5066.702441627555</v>
+        <v>5821.978104892527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7305977974395449</v>
+        <v>0.721055045460035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9469318937500578</v>
+        <v>0.9889796038033021</v>
       </c>
       <c r="H9" t="n">
-        <v>4.440269905282284</v>
+        <v>4.417384019298005</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02529134720862299</v>
+        <v>0.02313571239851187</v>
       </c>
       <c r="J9" t="n">
-        <v>15.83585207393512</v>
+        <v>15.59276414771912</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2300674076406526</v>
+        <v>0.2324284045554321</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3604845602466328</v>
+        <v>0.3570876342138244</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4929262262294816</v>
+        <v>0.4920309203010384</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4031375076550102</v>
+        <v>0.4003791679382984</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04671755763829503</v>
+        <v>0.05682907430234393</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2715047690485587</v>
+        <v>0.2757152244821306</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3419591859028396</v>
+        <v>0.3411375910472576</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4924431921342713</v>
+        <v>0.4928115957929247</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3953419743206972</v>
+        <v>0.3956488315315428</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0629374366022657</v>
+        <v>0.06213774255886376</v>
       </c>
     </row>
     <row r="10">
@@ -1056,13 +1052,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1120,28 +1116,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51164</v>
+        <v>51172</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>85677</v>
+        <v>86326</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>35.49</v>
+        <v>63.4</v>
       </c>
       <c r="I11" t="n">
         <v>0.3</v>
       </c>
       <c r="J11" t="n">
-        <v>195.39</v>
+        <v>480.31</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1183,67 +1179,65 @@
           <t>n_zero</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
-        <v>252</v>
+        <v>2442</v>
       </c>
       <c r="I12" t="n">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="J12" t="n">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="K12" t="n">
-        <v>4748</v>
+        <v>47426</v>
       </c>
       <c r="L12" t="n">
-        <v>4258</v>
+        <v>42762</v>
       </c>
       <c r="M12" t="n">
-        <v>2092</v>
+        <v>20680</v>
       </c>
       <c r="N12" t="n">
-        <v>4003</v>
+        <v>40222</v>
       </c>
       <c r="O12" t="n">
-        <v>5019</v>
+        <v>50146</v>
       </c>
       <c r="P12" t="n">
-        <v>4627</v>
+        <v>46139</v>
       </c>
       <c r="Q12" t="n">
-        <v>4350</v>
+        <v>43545</v>
       </c>
       <c r="R12" t="n">
-        <v>2078</v>
+        <v>20903</v>
       </c>
       <c r="S12" t="n">
-        <v>4055</v>
+        <v>40535</v>
       </c>
       <c r="T12" t="n">
-        <v>5010</v>
+        <v>50114</v>
       </c>
     </row>
     <row r="13">
